--- a/Code/Results/Cases/Case_4_214/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_214/res_line/pl_mw.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.9113763847002758</v>
+        <v>0.513310598074753</v>
       </c>
       <c r="C2">
-        <v>0.2820329665447616</v>
+        <v>0.1821040325354488</v>
       </c>
       <c r="D2">
-        <v>0.5464341902401486</v>
+        <v>0.6710255415307813</v>
       </c>
       <c r="E2">
-        <v>0.2435337111351288</v>
+        <v>0.2733999735695392</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>1.830042515416892</v>
+        <v>2.151177162458538</v>
       </c>
       <c r="H2">
-        <v>1.129375782857068</v>
+        <v>1.772764138966949</v>
       </c>
       <c r="I2">
-        <v>1.108430887950462</v>
+        <v>1.506326244629058</v>
       </c>
       <c r="J2">
-        <v>0.1439531317471747</v>
+        <v>0.1420504691007523</v>
       </c>
       <c r="K2">
-        <v>1.17766752759195</v>
+        <v>0.6903773610042947</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -468,34 +468,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.7887689740375663</v>
+        <v>0.4839792836316974</v>
       </c>
       <c r="C3">
-        <v>0.24502170478425</v>
+        <v>0.1736526897943236</v>
       </c>
       <c r="D3">
-        <v>0.4933259170682618</v>
+        <v>0.6614747676968307</v>
       </c>
       <c r="E3">
-        <v>0.2185326208652683</v>
+        <v>0.2686691276932507</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>1.71450445226651</v>
+        <v>2.128169348583327</v>
       </c>
       <c r="H3">
-        <v>1.083490143399416</v>
+        <v>1.767279396900619</v>
       </c>
       <c r="I3">
-        <v>1.060436055365791</v>
+        <v>1.498284307995192</v>
       </c>
       <c r="J3">
-        <v>0.1281675795837955</v>
+        <v>0.1388827454660131</v>
       </c>
       <c r="K3">
-        <v>1.019851587901485</v>
+        <v>0.6531332251788058</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -515,34 +515,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.7143183762452736</v>
+        <v>0.4662991398375596</v>
       </c>
       <c r="C4">
-        <v>0.222681716269804</v>
+        <v>0.1685817930317057</v>
       </c>
       <c r="D4">
-        <v>0.4615388643137237</v>
+        <v>0.6559622450545817</v>
       </c>
       <c r="E4">
-        <v>0.2035580712979694</v>
+        <v>0.2659144135013136</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>1.646452815926665</v>
+        <v>2.114981480709361</v>
       </c>
       <c r="H4">
-        <v>1.056888879872616</v>
+        <v>1.764548829094934</v>
       </c>
       <c r="I4">
-        <v>1.032557279700313</v>
+        <v>1.493905714407234</v>
       </c>
       <c r="J4">
-        <v>0.1187048759425977</v>
+        <v>0.1370204881278596</v>
       </c>
       <c r="K4">
-        <v>0.9241745261681444</v>
+        <v>0.63071094826131</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -562,34 +562,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.6841598327370093</v>
+        <v>0.4591772559090828</v>
       </c>
       <c r="C5">
-        <v>0.2136630708002372</v>
+        <v>0.1665450109327935</v>
       </c>
       <c r="D5">
-        <v>0.4487739231896057</v>
+        <v>0.6538042235892192</v>
       </c>
       <c r="E5">
-        <v>0.1975417238695272</v>
+        <v>0.2648295247606285</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>1.619391309945968</v>
+        <v>2.109842794329566</v>
       </c>
       <c r="H5">
-        <v>1.046418185396988</v>
+        <v>1.76359612932103</v>
       </c>
       <c r="I5">
-        <v>1.021568731029312</v>
+        <v>1.492261717009043</v>
       </c>
       <c r="J5">
-        <v>0.1149008465014276</v>
+        <v>0.1362823590002691</v>
       </c>
       <c r="K5">
-        <v>0.885452822403181</v>
+        <v>0.6216857603971278</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -609,34 +609,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.6791621549629383</v>
+        <v>0.4579996833167002</v>
       </c>
       <c r="C6">
-        <v>0.2121703432823381</v>
+        <v>0.1662085930425263</v>
       </c>
       <c r="D6">
-        <v>0.4466651978570155</v>
+        <v>0.6534512218271686</v>
       </c>
       <c r="E6">
-        <v>0.1965476596679991</v>
+        <v>0.2646516541385395</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>1.6149366637421</v>
+        <v>2.109003722738194</v>
       </c>
       <c r="H6">
-        <v>1.044701129735955</v>
+        <v>1.763447594635807</v>
       </c>
       <c r="I6">
-        <v>1.019765804621208</v>
+        <v>1.491997198521837</v>
       </c>
       <c r="J6">
-        <v>0.1142721792555434</v>
+        <v>0.1361610454044566</v>
       </c>
       <c r="K6">
-        <v>0.8790381548156461</v>
+        <v>0.6201939033227006</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -656,34 +656,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.7139109518717248</v>
+        <v>0.4662027557677675</v>
       </c>
       <c r="C7">
-        <v>0.2225597580690106</v>
+        <v>0.1685542043416888</v>
       </c>
       <c r="D7">
-        <v>0.46136597140719</v>
+        <v>0.655932783464948</v>
       </c>
       <c r="E7">
-        <v>0.2034765959626839</v>
+        <v>0.2658996298135605</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>1.646085213549838</v>
+        <v>2.114911226017966</v>
       </c>
       <c r="H7">
-        <v>1.056746205139888</v>
+        <v>1.764535332941421</v>
       </c>
       <c r="I7">
-        <v>1.032407612041226</v>
+        <v>1.493882975155849</v>
       </c>
       <c r="J7">
-        <v>0.1186533697061236</v>
+        <v>0.1370104494844</v>
       </c>
       <c r="K7">
-        <v>0.9236512794292935</v>
+        <v>0.630588777668379</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -703,34 +703,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.8689112256311091</v>
+        <v>0.5031288333053112</v>
       </c>
       <c r="C8">
-        <v>0.2691842005055207</v>
+        <v>0.1791654074357325</v>
       </c>
       <c r="D8">
-        <v>0.527940627291656</v>
+        <v>0.6676594000024068</v>
       </c>
       <c r="E8">
-        <v>0.2348298083485574</v>
+        <v>0.2717376034728076</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>1.789570088119973</v>
+        <v>2.143048772135074</v>
       </c>
       <c r="H8">
-        <v>1.113211796878687</v>
+        <v>1.770740663892042</v>
       </c>
       <c r="I8">
-        <v>1.091534978544544</v>
+        <v>1.503437141129844</v>
       </c>
       <c r="J8">
-        <v>0.1384590612036973</v>
+        <v>0.1409410345903979</v>
       </c>
       <c r="K8">
-        <v>1.122973837342471</v>
+        <v>0.677443033801012</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -750,34 +750,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.18085820416988</v>
+        <v>0.5781553920847955</v>
       </c>
       <c r="C9">
-        <v>0.3642525042407669</v>
+        <v>0.2009176845921843</v>
       </c>
       <c r="D9">
-        <v>0.6659046007458755</v>
+        <v>0.693450626592238</v>
       </c>
       <c r="E9">
-        <v>0.2997282045442375</v>
+        <v>0.2843796473649149</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>2.096644029021888</v>
+        <v>2.205711279327716</v>
       </c>
       <c r="H9">
-        <v>1.23769547768822</v>
+        <v>1.787974309069227</v>
       </c>
       <c r="I9">
-        <v>1.22145770391289</v>
+        <v>1.526625399537394</v>
       </c>
       <c r="J9">
-        <v>0.1794000492147845</v>
+        <v>0.1493082142258899</v>
       </c>
       <c r="K9">
-        <v>1.52552453156494</v>
+        <v>0.7728682705735537</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -797,34 +797,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.417073359287713</v>
+        <v>0.6348798136689879</v>
       </c>
       <c r="C10">
-        <v>0.4372161488179529</v>
+        <v>0.2174838861122623</v>
       </c>
       <c r="D10">
-        <v>0.7731549488675</v>
+        <v>0.7141134473945954</v>
       </c>
       <c r="E10">
-        <v>0.350151344100972</v>
+        <v>0.2944014820436394</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>2.342171304391115</v>
+        <v>2.256366747953706</v>
       </c>
       <c r="H10">
-        <v>1.339494250340266</v>
+        <v>1.8037407965125</v>
       </c>
       <c r="I10">
-        <v>1.327505925377423</v>
+        <v>1.546401152933825</v>
       </c>
       <c r="J10">
-        <v>0.211191075900544</v>
+        <v>0.1558623067847975</v>
       </c>
       <c r="K10">
-        <v>1.83144875810865</v>
+        <v>0.845156727969794</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -844,34 +844,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.526599519852113</v>
+        <v>0.661035538036316</v>
       </c>
       <c r="C11">
-        <v>0.4713127453604216</v>
+        <v>0.2251494631540254</v>
       </c>
       <c r="D11">
-        <v>0.8235676803374474</v>
+        <v>0.7238880556008951</v>
       </c>
       <c r="E11">
-        <v>0.3738512669925385</v>
+        <v>0.2991213904999768</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>2.459257609863016</v>
+        <v>2.280426046045534</v>
       </c>
       <c r="H11">
-        <v>1.388540128881999</v>
+        <v>1.811591542406489</v>
       </c>
       <c r="I11">
-        <v>1.37856913761712</v>
+        <v>1.555998080628541</v>
       </c>
       <c r="J11">
-        <v>0.2261334044113283</v>
+        <v>0.158933348867194</v>
       </c>
       <c r="K11">
-        <v>1.97359514486925</v>
+        <v>0.8785206470994638</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -891,34 +891,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.568422226461308</v>
+        <v>0.6709906329520265</v>
       </c>
       <c r="C12">
-        <v>0.4843756954998355</v>
+        <v>0.2280709843335273</v>
       </c>
       <c r="D12">
-        <v>0.8429232744495607</v>
+        <v>0.7276435041570153</v>
       </c>
       <c r="E12">
-        <v>0.3829509183049922</v>
+        <v>0.3009319247445461</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>2.504470535683993</v>
+        <v>2.289683609102354</v>
       </c>
       <c r="H12">
-        <v>1.407551999744982</v>
+        <v>1.814662246438559</v>
       </c>
       <c r="I12">
-        <v>1.398359712634019</v>
+        <v>1.559718980496939</v>
       </c>
       <c r="J12">
-        <v>0.231870897913808</v>
+        <v>0.1601092229557679</v>
       </c>
       <c r="K12">
-        <v>2.027922212762348</v>
+        <v>0.8912238680651967</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -938,34 +938,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.559398651051367</v>
+        <v>0.6688443804040105</v>
       </c>
       <c r="C13">
-        <v>0.4815552628578814</v>
+        <v>0.2274409475578523</v>
       </c>
       <c r="D13">
-        <v>0.8387423527686906</v>
+        <v>0.7268322971845862</v>
       </c>
       <c r="E13">
-        <v>0.3809853222413935</v>
+        <v>0.3005409605724196</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>2.494692516728975</v>
+        <v>2.287683285026588</v>
       </c>
       <c r="H13">
-        <v>1.403437135558903</v>
+        <v>1.813996562124288</v>
       </c>
       <c r="I13">
-        <v>1.394076437884408</v>
+        <v>1.558913754201484</v>
       </c>
       <c r="J13">
-        <v>0.2306315328650896</v>
+        <v>0.1598554010918605</v>
       </c>
       <c r="K13">
-        <v>2.016198487474583</v>
+        <v>0.888484930812723</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -985,34 +985,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.530033029698842</v>
+        <v>0.6618535380891331</v>
       </c>
       <c r="C14">
-        <v>0.4723842797943405</v>
+        <v>0.2253894423876943</v>
       </c>
       <c r="D14">
-        <v>0.825154562970539</v>
+        <v>0.724195935491565</v>
       </c>
       <c r="E14">
-        <v>0.3745973011528179</v>
+        <v>0.29926987874574</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>2.462959163813082</v>
+        <v>2.281184724354233</v>
       </c>
       <c r="H14">
-        <v>1.390095163935825</v>
+        <v>1.811842209745947</v>
       </c>
       <c r="I14">
-        <v>1.380187924664853</v>
+        <v>1.556302460644787</v>
       </c>
       <c r="J14">
-        <v>0.2266037832684162</v>
+        <v>0.1590298291128107</v>
       </c>
       <c r="K14">
-        <v>1.978054224803799</v>
+        <v>0.8795643648450948</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1032,34 +1032,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.512092566334388</v>
+        <v>0.6575780190453031</v>
       </c>
       <c r="C15">
-        <v>0.4667871621039978</v>
+        <v>0.2241352791236295</v>
       </c>
       <c r="D15">
-        <v>0.8168672157269441</v>
+        <v>0.7225881252271904</v>
       </c>
       <c r="E15">
-        <v>0.370701219412318</v>
+        <v>0.2984943287067097</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>2.443638631897045</v>
+        <v>2.277223312064052</v>
       </c>
       <c r="H15">
-        <v>1.381981466866193</v>
+        <v>1.810535349660512</v>
       </c>
       <c r="I15">
-        <v>1.371741463817855</v>
+        <v>1.554714276047079</v>
       </c>
       <c r="J15">
-        <v>0.224147297276744</v>
+        <v>0.1585258290153462</v>
       </c>
       <c r="K15">
-        <v>1.954757023239921</v>
+        <v>0.8741092525134206</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1079,34 +1079,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.409961367673958</v>
+        <v>0.633177543738924</v>
       </c>
       <c r="C16">
-        <v>0.4350078232668864</v>
+        <v>0.2169855382018397</v>
       </c>
       <c r="D16">
-        <v>0.769895682605835</v>
+        <v>0.7134822074074521</v>
       </c>
       <c r="E16">
-        <v>0.3486191141410799</v>
+        <v>0.2940962688032371</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>2.334636225880956</v>
+        <v>2.254814921983439</v>
       </c>
       <c r="H16">
-        <v>1.336347856291411</v>
+        <v>1.803241404431901</v>
       </c>
       <c r="I16">
-        <v>1.32422961166958</v>
+        <v>1.545786091559648</v>
       </c>
       <c r="J16">
-        <v>0.2102250629076252</v>
+        <v>0.1556634140564057</v>
       </c>
       <c r="K16">
-        <v>1.822224999177081</v>
+        <v>0.8429859728429676</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1126,34 +1126,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.347871296320619</v>
+        <v>0.6182986283159835</v>
       </c>
       <c r="C17">
-        <v>0.4157583583182998</v>
+        <v>0.212632654806157</v>
       </c>
       <c r="D17">
-        <v>0.7415177173985796</v>
+        <v>0.7079921306904851</v>
       </c>
       <c r="E17">
-        <v>0.3352781116672858</v>
+        <v>0.2914394651765875</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>2.26921572253957</v>
+        <v>2.241328819963741</v>
       </c>
       <c r="H17">
-        <v>1.309085119413368</v>
+        <v>1.79894074631099</v>
       </c>
       <c r="I17">
-        <v>1.295838034593885</v>
+        <v>1.540463078203274</v>
       </c>
       <c r="J17">
-        <v>0.2018140959088726</v>
+        <v>0.1539303937992003</v>
       </c>
       <c r="K17">
-        <v>1.741732121781496</v>
+        <v>0.8240157180569838</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1173,34 +1173,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.312350354761776</v>
+        <v>0.6097737574581004</v>
       </c>
       <c r="C18">
-        <v>0.4047703644490355</v>
+        <v>0.2101411766986985</v>
       </c>
       <c r="D18">
-        <v>0.7253462217675803</v>
+        <v>0.7048696735388376</v>
       </c>
       <c r="E18">
-        <v>0.3276754439459566</v>
+        <v>0.2899264850104899</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>2.232088822443899</v>
+        <v>2.233667544377141</v>
       </c>
       <c r="H18">
-        <v>1.29365893309722</v>
+        <v>1.796530970377034</v>
       </c>
       <c r="I18">
-        <v>1.279770324650528</v>
+        <v>1.537457954289494</v>
       </c>
       <c r="J18">
-        <v>0.1970208853402937</v>
+        <v>0.1529420318686761</v>
       </c>
       <c r="K18">
-        <v>1.695710560829554</v>
+        <v>0.8131496606726785</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1220,34 +1220,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.300355055637482</v>
+        <v>0.6068930673288264</v>
       </c>
       <c r="C19">
-        <v>0.4010638028645701</v>
+        <v>0.2092996946256562</v>
       </c>
       <c r="D19">
-        <v>0.719895808939782</v>
+        <v>0.7038185214462658</v>
       </c>
       <c r="E19">
-        <v>0.3251130158473643</v>
+        <v>0.2894168147505383</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>2.219601532241484</v>
+        <v>2.231089960247743</v>
       </c>
       <c r="H19">
-        <v>1.288478310318652</v>
+        <v>1.795726020773117</v>
       </c>
       <c r="I19">
-        <v>1.274373747530035</v>
+        <v>1.536450169804411</v>
       </c>
       <c r="J19">
-        <v>0.1954053499437833</v>
+        <v>0.1526088347877135</v>
       </c>
       <c r="K19">
-        <v>1.680173788496688</v>
+        <v>0.809478349672645</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1267,34 +1267,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.354460714398414</v>
+        <v>0.6198790902340932</v>
       </c>
       <c r="C20">
-        <v>0.4177986791247008</v>
+        <v>0.2130947647730466</v>
       </c>
       <c r="D20">
-        <v>0.7445227773850718</v>
+        <v>0.7085729057033348</v>
       </c>
       <c r="E20">
-        <v>0.336690858236679</v>
+        <v>0.2917207187375794</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>2.276127285900969</v>
+        <v>2.242754541666955</v>
       </c>
       <c r="H20">
-        <v>1.311960617071549</v>
+        <v>1.79939194896329</v>
       </c>
       <c r="I20">
-        <v>1.298832877991842</v>
+        <v>1.541023868635307</v>
       </c>
       <c r="J20">
-        <v>0.2027047769774128</v>
+        <v>0.1541140043296281</v>
       </c>
       <c r="K20">
-        <v>1.750271691910029</v>
+        <v>0.8260304626444963</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1314,34 +1314,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.53864856909766</v>
+        <v>0.6639055480668219</v>
       </c>
       <c r="C21">
-        <v>0.4750737326111221</v>
+        <v>0.2259915098939871</v>
       </c>
       <c r="D21">
-        <v>0.8291381523371513</v>
+        <v>0.7249688320682139</v>
       </c>
       <c r="E21">
-        <v>0.3764700939104202</v>
+        <v>0.2996425959115143</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>2.472255430448996</v>
+        <v>2.283089518264774</v>
       </c>
       <c r="H21">
-        <v>1.394001713975399</v>
+        <v>1.812472339224655</v>
       </c>
       <c r="I21">
-        <v>1.384254583482331</v>
+        <v>1.557067103630047</v>
       </c>
       <c r="J21">
-        <v>0.2277845967157077</v>
+        <v>0.1592719680263173</v>
       </c>
       <c r="K21">
-        <v>1.989243964707128</v>
+        <v>0.8821826772617669</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1361,34 +1361,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.66107878088016</v>
+        <v>0.6929736556596424</v>
       </c>
       <c r="C22">
-        <v>0.5133998714181871</v>
+        <v>0.2345295233379829</v>
       </c>
       <c r="D22">
-        <v>0.8860034728802475</v>
+        <v>0.7359994137095782</v>
       </c>
       <c r="E22">
-        <v>0.4032051760817552</v>
+        <v>0.3049553027736778</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>2.605590144073233</v>
+        <v>2.310306940166413</v>
       </c>
       <c r="H22">
-        <v>1.450205618188647</v>
+        <v>1.821591275377955</v>
       </c>
       <c r="I22">
-        <v>1.442755505038491</v>
+        <v>1.56805810508699</v>
       </c>
       <c r="J22">
-        <v>0.2446426239002619</v>
+        <v>0.1627184311761027</v>
       </c>
       <c r="K22">
-        <v>2.148375275815283</v>
+        <v>0.9192837889896168</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1408,34 +1408,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.595529742540407</v>
+        <v>0.6774325501080227</v>
       </c>
       <c r="C23">
-        <v>0.4928550839034358</v>
+        <v>0.2299625927911109</v>
       </c>
       <c r="D23">
-        <v>0.855498782913827</v>
+        <v>0.7300833397655424</v>
       </c>
       <c r="E23">
-        <v>0.3888631704174585</v>
+        <v>0.3021074085974078</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>2.533919664554674</v>
+        <v>2.295701900501172</v>
       </c>
       <c r="H23">
-        <v>1.419955541831712</v>
+        <v>1.816672082139007</v>
       </c>
       <c r="I23">
-        <v>1.41127050385937</v>
+        <v>1.562145601319486</v>
       </c>
       <c r="J23">
-        <v>0.2355988225549055</v>
+        <v>0.1608720666119439</v>
       </c>
       <c r="K23">
-        <v>2.063148556781641</v>
+        <v>0.899445382100339</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1455,34 +1455,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.351481095636416</v>
+        <v>0.619164472394516</v>
       </c>
       <c r="C24">
-        <v>0.4168760062751744</v>
+        <v>0.2128858104387348</v>
       </c>
       <c r="D24">
-        <v>0.7431637455492535</v>
+        <v>0.7083102318573538</v>
       </c>
       <c r="E24">
-        <v>0.3360519471794206</v>
+        <v>0.2915935189942616</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>2.273001067229416</v>
+        <v>2.242109686169357</v>
       </c>
       <c r="H24">
-        <v>1.310659836987071</v>
+        <v>1.799187764857692</v>
       </c>
       <c r="I24">
-        <v>1.29747811865586</v>
+        <v>1.540770163525139</v>
       </c>
       <c r="J24">
-        <v>0.2023019688514722</v>
+        <v>0.154030969175011</v>
       </c>
       <c r="K24">
-        <v>1.746410163656037</v>
+        <v>0.825119471422596</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1502,34 +1502,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.09540253004468</v>
+        <v>0.557577958098733</v>
       </c>
       <c r="C25">
-        <v>0.3380571292916557</v>
+        <v>0.19493111317135</v>
       </c>
       <c r="D25">
-        <v>0.6276547151522607</v>
+        <v>0.6861731447443447</v>
       </c>
       <c r="E25">
-        <v>0.2817415388047024</v>
+        <v>0.280831225620652</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>2.010406363056774</v>
+        <v>2.187952504851751</v>
       </c>
       <c r="H25">
-        <v>1.202356199926925</v>
+        <v>1.782768145108378</v>
       </c>
       <c r="I25">
-        <v>1.184611746186285</v>
+        <v>1.519873113929272</v>
       </c>
       <c r="J25">
-        <v>0.1680575035833414</v>
+        <v>0.1469735946839421</v>
       </c>
       <c r="K25">
-        <v>1.41507638505351</v>
+        <v>0.7466718670111732</v>
       </c>
       <c r="L25">
         <v>0</v>

--- a/Code/Results/Cases/Case_4_214/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_214/res_line/pl_mw.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.513310598074753</v>
+        <v>0.9113763847003327</v>
       </c>
       <c r="C2">
-        <v>0.1821040325354488</v>
+        <v>0.2820329665446479</v>
       </c>
       <c r="D2">
-        <v>0.6710255415307813</v>
+        <v>0.5464341902402623</v>
       </c>
       <c r="E2">
-        <v>0.2733999735695392</v>
+        <v>0.2435337111352069</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>2.151177162458538</v>
+        <v>1.830042515416949</v>
       </c>
       <c r="H2">
-        <v>1.772764138966949</v>
+        <v>1.129375782857181</v>
       </c>
       <c r="I2">
-        <v>1.506326244629058</v>
+        <v>1.108430887950455</v>
       </c>
       <c r="J2">
-        <v>0.1420504691007523</v>
+        <v>0.1439531317472245</v>
       </c>
       <c r="K2">
-        <v>0.6903773610042947</v>
+        <v>1.177667527591979</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -468,34 +468,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.4839792836316974</v>
+        <v>0.7887689740377937</v>
       </c>
       <c r="C3">
-        <v>0.1736526897943236</v>
+        <v>0.2450217047843921</v>
       </c>
       <c r="D3">
-        <v>0.6614747676968307</v>
+        <v>0.4933259170682902</v>
       </c>
       <c r="E3">
-        <v>0.2686691276932507</v>
+        <v>0.2185326208652825</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>2.128169348583327</v>
+        <v>1.71450445226651</v>
       </c>
       <c r="H3">
-        <v>1.767279396900619</v>
+        <v>1.083490143399416</v>
       </c>
       <c r="I3">
-        <v>1.498284307995192</v>
+        <v>1.060436055365777</v>
       </c>
       <c r="J3">
-        <v>0.1388827454660131</v>
+        <v>0.1281675795838169</v>
       </c>
       <c r="K3">
-        <v>0.6531332251788058</v>
+        <v>1.019851587901456</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -515,34 +515,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.4662991398375596</v>
+        <v>0.7143183762452452</v>
       </c>
       <c r="C4">
-        <v>0.1685817930317057</v>
+        <v>0.2226817162699035</v>
       </c>
       <c r="D4">
-        <v>0.6559622450545817</v>
+        <v>0.461538864313809</v>
       </c>
       <c r="E4">
-        <v>0.2659144135013136</v>
+        <v>0.2035580712979552</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>2.114981480709361</v>
+        <v>1.646452815926665</v>
       </c>
       <c r="H4">
-        <v>1.764548829094934</v>
+        <v>1.056888879872616</v>
       </c>
       <c r="I4">
-        <v>1.493905714407234</v>
+        <v>1.03255727970032</v>
       </c>
       <c r="J4">
-        <v>0.1370204881278596</v>
+        <v>0.1187048759426759</v>
       </c>
       <c r="K4">
-        <v>0.63071094826131</v>
+        <v>0.9241745261680592</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -562,34 +562,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.4591772559090828</v>
+        <v>0.6841598327369809</v>
       </c>
       <c r="C5">
-        <v>0.1665450109327935</v>
+        <v>0.2136630707999529</v>
       </c>
       <c r="D5">
-        <v>0.6538042235892192</v>
+        <v>0.4487739231895773</v>
       </c>
       <c r="E5">
-        <v>0.2648295247606285</v>
+        <v>0.1975417238695059</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>2.109842794329566</v>
+        <v>1.619391309945897</v>
       </c>
       <c r="H5">
-        <v>1.76359612932103</v>
+        <v>1.046418185396931</v>
       </c>
       <c r="I5">
-        <v>1.492261717009043</v>
+        <v>1.021568731029284</v>
       </c>
       <c r="J5">
-        <v>0.1362823590002691</v>
+        <v>0.1149008465013708</v>
       </c>
       <c r="K5">
-        <v>0.6216857603971278</v>
+        <v>0.8854528224032379</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -609,34 +609,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.4579996833167002</v>
+        <v>0.6791621549627962</v>
       </c>
       <c r="C6">
-        <v>0.1662085930425263</v>
+        <v>0.2121703432822102</v>
       </c>
       <c r="D6">
-        <v>0.6534512218271686</v>
+        <v>0.4466651978570724</v>
       </c>
       <c r="E6">
-        <v>0.2646516541385395</v>
+        <v>0.1965476596680276</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>2.109003722738194</v>
+        <v>1.61493666374227</v>
       </c>
       <c r="H6">
-        <v>1.763447594635807</v>
+        <v>1.044701129735955</v>
       </c>
       <c r="I6">
-        <v>1.491997198521837</v>
+        <v>1.019765804621215</v>
       </c>
       <c r="J6">
-        <v>0.1361610454044566</v>
+        <v>0.1142721792556074</v>
       </c>
       <c r="K6">
-        <v>0.6201939033227006</v>
+        <v>0.8790381548156176</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -656,34 +656,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.4662027557677675</v>
+        <v>0.7139109518717532</v>
       </c>
       <c r="C7">
-        <v>0.1685542043416888</v>
+        <v>0.2225597580691243</v>
       </c>
       <c r="D7">
-        <v>0.655932783464948</v>
+        <v>0.4613659714071616</v>
       </c>
       <c r="E7">
-        <v>0.2658996298135605</v>
+        <v>0.2034765959626696</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>2.114911226017966</v>
+        <v>1.646085213549867</v>
       </c>
       <c r="H7">
-        <v>1.764535332941421</v>
+        <v>1.056746205139888</v>
       </c>
       <c r="I7">
-        <v>1.493882975155849</v>
+        <v>1.03240761204124</v>
       </c>
       <c r="J7">
-        <v>0.1370104494844</v>
+        <v>0.1186533697061378</v>
       </c>
       <c r="K7">
-        <v>0.630588777668379</v>
+        <v>0.9236512794292651</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -703,34 +703,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.5031288333053112</v>
+        <v>0.8689112256311091</v>
       </c>
       <c r="C8">
-        <v>0.1791654074357325</v>
+        <v>0.2691842005056344</v>
       </c>
       <c r="D8">
-        <v>0.6676594000024068</v>
+        <v>0.527940627291656</v>
       </c>
       <c r="E8">
-        <v>0.2717376034728076</v>
+        <v>0.2348298083485716</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>2.143048772135074</v>
+        <v>1.789570088120001</v>
       </c>
       <c r="H8">
-        <v>1.770740663892042</v>
+        <v>1.113211796878687</v>
       </c>
       <c r="I8">
-        <v>1.503437141129844</v>
+        <v>1.091534978544566</v>
       </c>
       <c r="J8">
-        <v>0.1409410345903979</v>
+        <v>0.1384590612036973</v>
       </c>
       <c r="K8">
-        <v>0.677443033801012</v>
+        <v>1.122973837342414</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -750,34 +750,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.5781553920847955</v>
+        <v>1.180858204169994</v>
       </c>
       <c r="C9">
-        <v>0.2009176845921843</v>
+        <v>0.3642525042405396</v>
       </c>
       <c r="D9">
-        <v>0.693450626592238</v>
+        <v>0.6659046007457334</v>
       </c>
       <c r="E9">
-        <v>0.2843796473649149</v>
+        <v>0.299728204544202</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>2.205711279327716</v>
+        <v>2.096644029021917</v>
       </c>
       <c r="H9">
-        <v>1.787974309069227</v>
+        <v>1.237695477688078</v>
       </c>
       <c r="I9">
-        <v>1.526625399537394</v>
+        <v>1.22145770391289</v>
       </c>
       <c r="J9">
-        <v>0.1493082142258899</v>
+        <v>0.1794000492146779</v>
       </c>
       <c r="K9">
-        <v>0.7728682705735537</v>
+        <v>1.525524531564997</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -797,34 +797,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.6348798136689879</v>
+        <v>1.417073359287599</v>
       </c>
       <c r="C10">
-        <v>0.2174838861122623</v>
+        <v>0.4372161488182655</v>
       </c>
       <c r="D10">
-        <v>0.7141134473945954</v>
+        <v>0.7731549488673863</v>
       </c>
       <c r="E10">
-        <v>0.2944014820436394</v>
+        <v>0.3501513441010005</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>2.256366747953706</v>
+        <v>2.342171304391115</v>
       </c>
       <c r="H10">
-        <v>1.8037407965125</v>
+        <v>1.339494250340266</v>
       </c>
       <c r="I10">
-        <v>1.546401152933825</v>
+        <v>1.327505925377409</v>
       </c>
       <c r="J10">
-        <v>0.1558623067847975</v>
+        <v>0.2111910759005866</v>
       </c>
       <c r="K10">
-        <v>0.845156727969794</v>
+        <v>1.831448758108564</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -844,34 +844,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.661035538036316</v>
+        <v>1.526599519852084</v>
       </c>
       <c r="C11">
-        <v>0.2251494631540254</v>
+        <v>0.4713127453600237</v>
       </c>
       <c r="D11">
-        <v>0.7238880556008951</v>
+        <v>0.823567680337419</v>
       </c>
       <c r="E11">
-        <v>0.2991213904999768</v>
+        <v>0.3738512669925385</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>2.280426046045534</v>
+        <v>2.459257609862988</v>
       </c>
       <c r="H11">
-        <v>1.811591542406489</v>
+        <v>1.388540128882113</v>
       </c>
       <c r="I11">
-        <v>1.555998080628541</v>
+        <v>1.378569137617134</v>
       </c>
       <c r="J11">
-        <v>0.158933348867194</v>
+        <v>0.2261334044113141</v>
       </c>
       <c r="K11">
-        <v>0.8785206470994638</v>
+        <v>1.973595144869279</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -891,34 +891,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.6709906329520265</v>
+        <v>1.568422226461308</v>
       </c>
       <c r="C12">
-        <v>0.2280709843335273</v>
+        <v>0.4843756955000345</v>
       </c>
       <c r="D12">
-        <v>0.7276435041570153</v>
+        <v>0.842923274449646</v>
       </c>
       <c r="E12">
-        <v>0.3009319247445461</v>
+        <v>0.3829509183049495</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>2.289683609102354</v>
+        <v>2.504470535683993</v>
       </c>
       <c r="H12">
-        <v>1.814662246438559</v>
+        <v>1.407551999744868</v>
       </c>
       <c r="I12">
-        <v>1.559718980496939</v>
+        <v>1.398359712634004</v>
       </c>
       <c r="J12">
-        <v>0.1601092229557679</v>
+        <v>0.231870897913879</v>
       </c>
       <c r="K12">
-        <v>0.8912238680651967</v>
+        <v>2.027922212762377</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -938,34 +938,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.6688443804040105</v>
+        <v>1.559398651051396</v>
       </c>
       <c r="C13">
-        <v>0.2274409475578523</v>
+        <v>0.481555262857654</v>
       </c>
       <c r="D13">
-        <v>0.7268322971845862</v>
+        <v>0.8387423527683779</v>
       </c>
       <c r="E13">
-        <v>0.3005409605724196</v>
+        <v>0.3809853222413935</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>2.287683285026588</v>
+        <v>2.49469251672906</v>
       </c>
       <c r="H13">
-        <v>1.813996562124288</v>
+        <v>1.403437135558931</v>
       </c>
       <c r="I13">
-        <v>1.558913754201484</v>
+        <v>1.394076437884394</v>
       </c>
       <c r="J13">
-        <v>0.1598554010918605</v>
+        <v>0.2306315328650612</v>
       </c>
       <c r="K13">
-        <v>0.888484930812723</v>
+        <v>2.016198487474554</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -985,34 +985,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.6618535380891331</v>
+        <v>1.53003302969887</v>
       </c>
       <c r="C14">
-        <v>0.2253894423876943</v>
+        <v>0.4723842797938573</v>
       </c>
       <c r="D14">
-        <v>0.724195935491565</v>
+        <v>0.8251545629705674</v>
       </c>
       <c r="E14">
-        <v>0.29926987874574</v>
+        <v>0.374597301152761</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>2.281184724354233</v>
+        <v>2.462959163813082</v>
       </c>
       <c r="H14">
-        <v>1.811842209745947</v>
+        <v>1.390095163935825</v>
       </c>
       <c r="I14">
-        <v>1.556302460644787</v>
+        <v>1.380187924664838</v>
       </c>
       <c r="J14">
-        <v>0.1590298291128107</v>
+        <v>0.2266037832683878</v>
       </c>
       <c r="K14">
-        <v>0.8795643648450948</v>
+        <v>1.978054224803827</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1032,34 +1032,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.6575780190453031</v>
+        <v>1.512092566334417</v>
       </c>
       <c r="C15">
-        <v>0.2241352791236295</v>
+        <v>0.4667871621042252</v>
       </c>
       <c r="D15">
-        <v>0.7225881252271904</v>
+        <v>0.8168672157269725</v>
       </c>
       <c r="E15">
-        <v>0.2984943287067097</v>
+        <v>0.3707012194122967</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>2.277223312064052</v>
+        <v>2.443638631897159</v>
       </c>
       <c r="H15">
-        <v>1.810535349660512</v>
+        <v>1.381981466866051</v>
       </c>
       <c r="I15">
-        <v>1.554714276047079</v>
+        <v>1.371741463817855</v>
       </c>
       <c r="J15">
-        <v>0.1585258290153462</v>
+        <v>0.224147297276744</v>
       </c>
       <c r="K15">
-        <v>0.8741092525134206</v>
+        <v>1.954757023239949</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1079,34 +1079,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.633177543738924</v>
+        <v>1.409961367673702</v>
       </c>
       <c r="C16">
-        <v>0.2169855382018397</v>
+        <v>0.4350078232666874</v>
       </c>
       <c r="D16">
-        <v>0.7134822074074521</v>
+        <v>0.7698956826059771</v>
       </c>
       <c r="E16">
-        <v>0.2940962688032371</v>
+        <v>0.3486191141410515</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>2.254814921983439</v>
+        <v>2.334636225880985</v>
       </c>
       <c r="H16">
-        <v>1.803241404431901</v>
+        <v>1.336347856291383</v>
       </c>
       <c r="I16">
-        <v>1.545786091559648</v>
+        <v>1.32422961166958</v>
       </c>
       <c r="J16">
-        <v>0.1556634140564057</v>
+        <v>0.2102250629076536</v>
       </c>
       <c r="K16">
-        <v>0.8429859728429676</v>
+        <v>1.822224999177052</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1126,34 +1126,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.6182986283159835</v>
+        <v>1.347871296320818</v>
       </c>
       <c r="C17">
-        <v>0.212632654806157</v>
+        <v>0.4157583583186977</v>
       </c>
       <c r="D17">
-        <v>0.7079921306904851</v>
+        <v>0.7415177173987786</v>
       </c>
       <c r="E17">
-        <v>0.2914394651765875</v>
+        <v>0.3352781116672574</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>2.241328819963741</v>
+        <v>2.26921572253957</v>
       </c>
       <c r="H17">
-        <v>1.79894074631099</v>
+        <v>1.309085119413396</v>
       </c>
       <c r="I17">
-        <v>1.540463078203274</v>
+        <v>1.295838034593842</v>
       </c>
       <c r="J17">
-        <v>0.1539303937992003</v>
+        <v>0.2018140959088441</v>
       </c>
       <c r="K17">
-        <v>0.8240157180569838</v>
+        <v>1.74173212178161</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1173,34 +1173,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.6097737574581004</v>
+        <v>1.312350354761634</v>
       </c>
       <c r="C18">
-        <v>0.2101411766986985</v>
+        <v>0.4047703644489218</v>
       </c>
       <c r="D18">
-        <v>0.7048696735388376</v>
+        <v>0.7253462217678361</v>
       </c>
       <c r="E18">
-        <v>0.2899264850104899</v>
+        <v>0.3276754439459566</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>2.233667544377141</v>
+        <v>2.23208882244387</v>
       </c>
       <c r="H18">
-        <v>1.796530970377034</v>
+        <v>1.293658933097106</v>
       </c>
       <c r="I18">
-        <v>1.537457954289494</v>
+        <v>1.279770324650528</v>
       </c>
       <c r="J18">
-        <v>0.1529420318686761</v>
+        <v>0.1970208853401232</v>
       </c>
       <c r="K18">
-        <v>0.8131496606726785</v>
+        <v>1.695710560829582</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1220,34 +1220,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.6068930673288264</v>
+        <v>1.300355055637567</v>
       </c>
       <c r="C19">
-        <v>0.2092996946256562</v>
+        <v>0.4010638028651101</v>
       </c>
       <c r="D19">
-        <v>0.7038185214462658</v>
+        <v>0.7198958089398957</v>
       </c>
       <c r="E19">
-        <v>0.2894168147505383</v>
+        <v>0.3251130158473288</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>2.231089960247743</v>
+        <v>2.21960153224137</v>
       </c>
       <c r="H19">
-        <v>1.795726020773117</v>
+        <v>1.288478310318681</v>
       </c>
       <c r="I19">
-        <v>1.536450169804411</v>
+        <v>1.274373747530049</v>
       </c>
       <c r="J19">
-        <v>0.1526088347877135</v>
+        <v>0.1954053499437975</v>
       </c>
       <c r="K19">
-        <v>0.809478349672645</v>
+        <v>1.680173788496631</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1267,34 +1267,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.6198790902340932</v>
+        <v>1.354460714398499</v>
       </c>
       <c r="C20">
-        <v>0.2130947647730466</v>
+        <v>0.4177986791248145</v>
       </c>
       <c r="D20">
-        <v>0.7085729057033348</v>
+        <v>0.7445227773852139</v>
       </c>
       <c r="E20">
-        <v>0.2917207187375794</v>
+        <v>0.3366908582366506</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>2.242754541666955</v>
+        <v>2.276127285900969</v>
       </c>
       <c r="H20">
-        <v>1.79939194896329</v>
+        <v>1.311960617071549</v>
       </c>
       <c r="I20">
-        <v>1.541023868635307</v>
+        <v>1.298832877991856</v>
       </c>
       <c r="J20">
-        <v>0.1541140043296281</v>
+        <v>0.2027047769773134</v>
       </c>
       <c r="K20">
-        <v>0.8260304626444963</v>
+        <v>1.750271691910029</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1314,34 +1314,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.6639055480668219</v>
+        <v>1.538648569097518</v>
       </c>
       <c r="C21">
-        <v>0.2259915098939871</v>
+        <v>0.4750737326110936</v>
       </c>
       <c r="D21">
-        <v>0.7249688320682139</v>
+        <v>0.8291381523370944</v>
       </c>
       <c r="E21">
-        <v>0.2996425959115143</v>
+        <v>0.3764700939104131</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>2.283089518264774</v>
+        <v>2.472255430448939</v>
       </c>
       <c r="H21">
-        <v>1.812472339224655</v>
+        <v>1.394001713975399</v>
       </c>
       <c r="I21">
-        <v>1.557067103630047</v>
+        <v>1.384254583482331</v>
       </c>
       <c r="J21">
-        <v>0.1592719680263173</v>
+        <v>0.2277845967156793</v>
       </c>
       <c r="K21">
-        <v>0.8821826772617669</v>
+        <v>1.989243964707043</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1361,34 +1361,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.6929736556596424</v>
+        <v>1.661078780880189</v>
       </c>
       <c r="C22">
-        <v>0.2345295233379829</v>
+        <v>0.5133998714181871</v>
       </c>
       <c r="D22">
-        <v>0.7359994137095782</v>
+        <v>0.886003472879878</v>
       </c>
       <c r="E22">
-        <v>0.3049553027736778</v>
+        <v>0.4032051760817552</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>2.310306940166413</v>
+        <v>2.605590144073176</v>
       </c>
       <c r="H22">
-        <v>1.821591275377955</v>
+        <v>1.450205618188647</v>
       </c>
       <c r="I22">
-        <v>1.56805810508699</v>
+        <v>1.442755505038491</v>
       </c>
       <c r="J22">
-        <v>0.1627184311761027</v>
+        <v>0.2446426239003898</v>
       </c>
       <c r="K22">
-        <v>0.9192837889896168</v>
+        <v>2.14837527581534</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1408,34 +1408,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.6774325501080227</v>
+        <v>1.59552974254035</v>
       </c>
       <c r="C23">
-        <v>0.2299625927911109</v>
+        <v>0.4928550839036063</v>
       </c>
       <c r="D23">
-        <v>0.7300833397655424</v>
+        <v>0.8554987829138838</v>
       </c>
       <c r="E23">
-        <v>0.3021074085974078</v>
+        <v>0.3888631704175296</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>2.295701900501172</v>
+        <v>2.533919664554759</v>
       </c>
       <c r="H23">
-        <v>1.816672082139007</v>
+        <v>1.419955541831712</v>
       </c>
       <c r="I23">
-        <v>1.562145601319486</v>
+        <v>1.411270503859399</v>
       </c>
       <c r="J23">
-        <v>0.1608720666119439</v>
+        <v>0.2355988225547208</v>
       </c>
       <c r="K23">
-        <v>0.899445382100339</v>
+        <v>2.063148556781613</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1455,34 +1455,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.619164472394516</v>
+        <v>1.351481095636331</v>
       </c>
       <c r="C24">
-        <v>0.2128858104387348</v>
+        <v>0.4168760062750039</v>
       </c>
       <c r="D24">
-        <v>0.7083102318573538</v>
+        <v>0.743163745549225</v>
       </c>
       <c r="E24">
-        <v>0.2915935189942616</v>
+        <v>0.3360519471794277</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>2.242109686169357</v>
+        <v>2.273001067229444</v>
       </c>
       <c r="H24">
-        <v>1.799187764857692</v>
+        <v>1.310659836987043</v>
       </c>
       <c r="I24">
-        <v>1.540770163525139</v>
+        <v>1.29747811865586</v>
       </c>
       <c r="J24">
-        <v>0.154030969175011</v>
+        <v>0.2023019688513727</v>
       </c>
       <c r="K24">
-        <v>0.825119471422596</v>
+        <v>1.746410163656037</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1502,34 +1502,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.557577958098733</v>
+        <v>1.095402530044623</v>
       </c>
       <c r="C25">
-        <v>0.19493111317135</v>
+        <v>0.3380571292918546</v>
       </c>
       <c r="D25">
-        <v>0.6861731447443447</v>
+        <v>0.6276547151522891</v>
       </c>
       <c r="E25">
-        <v>0.280831225620652</v>
+        <v>0.2817415388046598</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>2.187952504851751</v>
+        <v>2.010406363056688</v>
       </c>
       <c r="H25">
-        <v>1.782768145108378</v>
+        <v>1.202356199926953</v>
       </c>
       <c r="I25">
-        <v>1.519873113929272</v>
+        <v>1.184611746186306</v>
       </c>
       <c r="J25">
-        <v>0.1469735946839421</v>
+        <v>0.1680575035832987</v>
       </c>
       <c r="K25">
-        <v>0.7466718670111732</v>
+        <v>1.415076385053482</v>
       </c>
       <c r="L25">
         <v>0</v>
